--- a/medicine/Premiers secours et secourisme/Accident_majeur/Accident_majeur.xlsx
+++ b/medicine/Premiers secours et secourisme/Accident_majeur/Accident_majeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un accident majeur est, dans l'Union européenne selon la directive européenne no 96/82 du 9 décembre 1996[1] et en France selon l'arrêté du 10 mai 2000[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un accident majeur est, dans l'Union européenne selon la directive européenne no 96/82 du 9 décembre 1996 et en France selon l'arrêté du 10 mai 2000 :
 un événement tel qu'une émission (de gaz, de produit radioactif, d'agent pathogène, de polluant), un incendie ou une explosion d'importance majeure ;
 résultant de développements incontrôlés survenus au cours de l'exploitation d'un établissement ;
 entraînant pour la santé humaine, à l'intérieur ou à l'extérieur de l'établissement, et/ou pour l'environnement un danger grave, immédiat ou différé ;
@@ -515,9 +527,11 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En raison des coûts sociaux, économiques et environnementaux de ces accidents, des enjeux majeurs existent en matière de prévention, de préparation et de gestion des risques, ainsi qu'en matière de responsabilité sociale et environnementale et d'alerte[3],[4] et de communication des informations au public[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison des coûts sociaux, économiques et environnementaux de ces accidents, des enjeux majeurs existent en matière de prévention, de préparation et de gestion des risques, ainsi qu'en matière de responsabilité sociale et environnementale et d'alerte, et de communication des informations au public.
 </t>
         </is>
       </c>
